--- a/Upload/xls/import_goods.xlsx
+++ b/Upload/xls/import_goods.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>商品名称</t>
   </si>
@@ -22,7 +23,7 @@
     <t>商品品牌</t>
   </si>
   <si>
-    <t>商品分类</t>
+    <t>商品分类(分类必须存在)</t>
   </si>
   <si>
     <t>商品价格</t>
@@ -55,7 +56,7 @@
     <t>Leica/徕卡</t>
   </si>
   <si>
-    <t>数码</t>
+    <t>玩具</t>
   </si>
   <si>
     <t>颜色:黑|0|1200*
@@ -88,14 +89,17 @@
   <si>
     <t>&lt;div class="content ke-post" style="height: auto;"&gt;&lt;p&gt;&lt;a href="https://suning.tmall.com/p/rd421910.htm" target="_blank"&gt;&lt;/a&gt;&lt;a href="https://suning.tmall.com/p/rd421910.htm" target="_blank"&gt;&lt;/a&gt;&lt;/p&gt; &lt;p&gt;&lt;a href="https://detail.tmall.com/item.htm?id=540002439869&amp;amp;spm=0.0.0.0.qHknmg&amp;amp;skuId=3237259548914" target="_blank"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i3/2616970884/TB2qAYvaxXlpuFjSsphXXbJOXXa-2616970884.jpg" class="img-ks-lazyload"&gt;&lt;/a&gt;&lt;/p&gt; &lt;p&gt;&lt;a href="https://suning.tmall.com/p/rd421910.htm" style="line-height: 1.5;" target="_blank"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i2/2616970884/TB270qxaH1J.eBjy1zeXXX9kVXa-2616970884.jpg" class="img-ks-lazyload"&gt;&lt;/a&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i4/2616970884/TB2fmiublyN.eBjSZFkXXb8YFXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i3/2616970884/TB2MgcXXheI.eBjSsplXXX6GFXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i4/2616970884/TB2E3D_XoHB11BjSspeXXan0FXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i1/2616970884/TB2Q5ZXXmjz11Bjy0FnXXcnxXXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i3/2616970884/TB2c6UXXi2A11Bjy0FdXXbPwVXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i3/2616970884/TB21pkXXevB11BjSspnXXbE.pXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i2/2616970884/TB2HC2_XkTB11BjSspbXXbhcVXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i4/2616970884/TB2fz3XXoTz11Bjy0FlXXX5BpXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i1/2616970884/TB2p06_XdHC11BjSszeXXbZppXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i2/2616970884/TB2H684XGLB11BjSspkXXcy9pXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i4/2616970884/TB2VhI7XiKO.eBjSZPhXXXqcpXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;/p&gt;&lt;/div&gt;</t>
   </si>
+  <si>
+    <t>分类</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -116,6 +120,52 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -129,12 +179,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
@@ -143,15 +217,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,61 +246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -234,24 +254,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,60 +289,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,121 +451,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,17 +573,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,8 +629,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -618,31 +648,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,170 +670,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2319,107 +2326,107 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="55.9833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53" style="1" customWidth="1"/>
-    <col min="3" max="5" width="30.575" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.4416666666667" style="1" customWidth="1"/>
-    <col min="7" max="8" width="30.575" style="1" customWidth="1"/>
-    <col min="9" max="9" width="61.2916666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.575" style="1" customWidth="1"/>
-    <col min="11" max="256" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55.9833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="53" style="2" customWidth="1"/>
+    <col min="3" max="5" width="30.575" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.4416666666667" style="2" customWidth="1"/>
+    <col min="7" max="8" width="30.575" style="2" customWidth="1"/>
+    <col min="9" max="9" width="61.2916666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="30.575" style="2" customWidth="1"/>
+    <col min="11" max="256" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="124.65" customHeight="1" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>48340</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>45</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="10" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" ht="124.65" customHeight="1" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>5609</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>244</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="10" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2431,4 +2438,73 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" ht="20" customHeight="1"/>
+    <row r="3" ht="20" customHeight="1" spans="1:2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" ht="20" customHeight="1"/>
+    <row r="5" ht="20" customHeight="1"/>
+    <row r="6" ht="20" customHeight="1"/>
+    <row r="7" ht="20" customHeight="1"/>
+    <row r="8" ht="20" customHeight="1"/>
+    <row r="9" ht="20" customHeight="1"/>
+    <row r="10" ht="20" customHeight="1"/>
+    <row r="11" ht="20" customHeight="1"/>
+    <row r="12" ht="20" customHeight="1"/>
+    <row r="13" ht="20" customHeight="1"/>
+    <row r="14" ht="20" customHeight="1"/>
+    <row r="15" ht="20" customHeight="1"/>
+    <row r="16" ht="20" customHeight="1"/>
+    <row r="17" ht="20" customHeight="1"/>
+    <row r="18" ht="20" customHeight="1"/>
+    <row r="19" ht="20" customHeight="1"/>
+    <row r="20" ht="20" customHeight="1"/>
+    <row r="21" ht="20" customHeight="1"/>
+    <row r="22" ht="20" customHeight="1"/>
+    <row r="23" ht="20" customHeight="1"/>
+    <row r="24" ht="20" customHeight="1"/>
+    <row r="25" ht="20" customHeight="1"/>
+    <row r="26" ht="20" customHeight="1"/>
+    <row r="27" ht="20" customHeight="1"/>
+    <row r="28" ht="20" customHeight="1"/>
+    <row r="29" ht="20" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>